--- a/ttc-2019-delays/data/TTC Stations In order by line v4.xlsx
+++ b/ttc-2019-delays/data/TTC Stations In order by line v4.xlsx
@@ -304,9 +304,6 @@
     <t>avg_delay_time</t>
   </si>
   <si>
-    <t xml:space="preserve">num_delays </t>
-  </si>
-  <si>
     <t> -79.499722</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t> -79.39972</t>
+  </si>
+  <si>
+    <t>num_delays</t>
   </si>
 </sst>
 </file>
@@ -328,7 +328,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -421,7 +421,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -734,7 +734,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -764,7 +764,7 @@
         <v>88</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -835,7 +835,7 @@
         <v>43.774166999999998</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>39</v>
@@ -1055,7 +1055,7 @@
         <v>43.66722</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>39</v>
@@ -1075,7 +1075,7 @@
         <v>43.668059999999997</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>39</v>
@@ -1815,7 +1815,7 @@
         <v>43.667222000000002</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>40</v>
@@ -1835,7 +1835,7 @@
         <v>43.668056</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>40</v>
